--- a/data_excel/523.xlsx
+++ b/data_excel/523.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>桌上</t>
   </si>
@@ -104,6 +104,16 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +143,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -176,14 +194,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -486,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -612,35 +643,46 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data_excel/523.xlsx
+++ b/data_excel/523.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>桌上</t>
   </si>
@@ -104,16 +104,6 @@
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,14 +133,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -194,27 +176,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -517,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -643,46 +612,35 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data_excel/523.xlsx
+++ b/data_excel/523.xlsx
@@ -60,9 +60,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>塊</t>
   </si>
   <si>
@@ -114,6 +111,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -205,16 +206,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -520,7 +537,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -545,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -565,7 +582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -578,8 +595,8 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -587,19 +604,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -607,66 +624,66 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -677,13 +694,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/523.xlsx
+++ b/data_excel/523.xlsx
@@ -96,14 +96,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>nv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被</t>
   </si>
   <si>
@@ -115,6 +107,14 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +537,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -675,10 +675,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
